--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2019/9_Ardahan_2019.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2019/9_Ardahan_2019.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\İllere Göre Tahsilat Tahakkuk 2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{83DC98BE-AEAC-4F54-B6E7-F0B4924FAB10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C98ACA5-F887-4987-BB49-76BF089274EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="663" xr2:uid="{50789085-6812-42D0-90E1-59E913382CF2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="663" xr2:uid="{3A8378BB-A1DF-46C9-9419-93205238C5D3}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -923,15 +923,15 @@
   <cellStyles count="11">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{B6FD0CA8-B278-41DC-8F9D-637598179B58}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{30D445E4-15DA-464E-94B5-3062684DF9D5}"/>
-    <cellStyle name="Normal 2 3" xfId="4" xr:uid="{B7125D9E-4C6D-439C-8477-50B20202AA4A}"/>
-    <cellStyle name="Normal 3" xfId="5" xr:uid="{32F583B3-4327-47EE-87EF-34C10D052B6D}"/>
-    <cellStyle name="Normal 3 2" xfId="6" xr:uid="{E924F867-4A64-4323-A5F0-53D5653DC88D}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="7" xr:uid="{B9963718-C291-4FF5-A8F0-912106E8D1EE}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="8" xr:uid="{594A5788-A625-46E0-AC72-C3E314F5775F}"/>
-    <cellStyle name="Not 2" xfId="9" xr:uid="{E5C7FCD8-2D34-441F-A0AD-D91F9066008B}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="10" xr:uid="{E5F2C23E-BF86-4EEF-9F9D-9CF9B5AA2E52}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{858A7004-B963-4FB3-8971-9569E10B0867}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{B388D251-28CB-44B2-874A-6FF634809072}"/>
+    <cellStyle name="Normal 2 3" xfId="4" xr:uid="{0D793E3C-A191-45CC-B689-39D180CA29A5}"/>
+    <cellStyle name="Normal 3" xfId="5" xr:uid="{2DA312D0-B3AA-4490-AA8D-1A690634CAFB}"/>
+    <cellStyle name="Normal 3 2" xfId="6" xr:uid="{AC9821C6-A434-4D00-89ED-B5962102C728}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="7" xr:uid="{FF69EE45-A0C2-469E-85A1-8C02638BDA14}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="8" xr:uid="{B582F235-167E-4207-8075-B8728EAC5DFE}"/>
+    <cellStyle name="Not 2" xfId="9" xr:uid="{A4D37E3D-DC27-4AE6-BE93-2EEEB0A97A5B}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="10" xr:uid="{D884F8F0-E49F-4832-B6F1-65DA2EAFDA5B}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1301,7 +1301,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{974E7552-C4C5-4BCC-9377-B7577F8CD5C9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B688E535-0808-4B3A-AEE4-B0A0E58A67E6}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2574,18 +2574,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6569FDF6-2885-4649-8886-67D3DD57077C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CE339047-8A47-4B78-8BC0-75CBB35B26FB}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{9AE01C88-CD70-47CD-8920-94076694ED80}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{38006EF5-A370-44D9-A39E-BB8378CD0B3B}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{11DB35C0-774D-4E1D-B35A-0F53B405E193}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{C8EBB7EE-845C-4529-95B7-D892833FB4B3}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B283B4CE-641D-4B2A-A9B0-599382FCFA3D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{62FE061D-BC0D-413B-A3BD-7C12A941F831}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E73752F1-98C8-4330-BCA3-C399AAB904A9}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{10A5368B-823D-463C-BCD3-7BEDC63C6A07}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{71E65FFD-67E8-4F05-BAA3-7AB45F3D0E8C}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2C4D755D-611B-4BBD-BA68-B84B277CCA7D}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A86235AC-ACBF-4217-B164-01DC158F00B1}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{91751CE9-08B5-4AD1-A32F-FF24D49C4A63}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{5D4A97F6-9DBC-4827-ADB3-A5B714BE93BD}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{72D19495-DDA2-468F-BA26-06DBF587C129}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D89F088A-0687-47E7-9B28-F07E15E26496}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{BA8B5992-2D0E-4F26-9120-45C28FE26B00}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6772E2A8-908E-4B74-B6FC-FCDA2AAFFC28}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{51E84276-364B-4A9D-84C1-463A63EE6705}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0946348D-876C-4ACA-B63A-5FB525F002B6}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{39BE08D0-6919-4D7A-987B-9B7140F037D3}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1CB17F31-251F-4788-9794-DAB41796AF61}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A90B9D78-C0A8-45CC-BAF3-3F1214EB43E2}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2598,7 +2598,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9844D8D-2167-4BCF-85AC-112727987A9D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{178A0C12-361E-4E31-B290-02930C0841F9}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3867,18 +3867,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{356341F3-197E-4304-BC3D-EA9A938EB65F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8408933A-84E0-48AE-B27A-CACCD3009347}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{23EEDCAB-679C-4E7B-BC24-48F37711C5D1}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{A1A7507C-DDDB-4A9F-84C4-08CA540CAEDB}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{DE74231A-173F-45FB-BB20-0651395679E5}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{CEB078B6-C991-4505-ACE7-E67C5B38814D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5D7AE22E-F624-48B9-8B72-26B16AFB2DE2}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8C0F8181-8B9F-4CBE-AE04-1C1074B8D0F9}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1CB1B6DE-6612-4C0D-B2A1-061B54B88E2D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7554ABC2-10EB-4216-B2AC-3C580A4D5043}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C3840172-FB01-4003-8982-310017590DC0}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1116BE02-A901-4650-8A8B-88457E3E6D17}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C6EB0618-0F8C-4D38-A3AB-71C37648A194}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9ABDBD22-505C-4EF8-98E8-332F9EEF65C9}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{E4C78D08-9427-4AA8-B9E4-0E7B39CEC44A}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{3388B462-3C2D-4A86-BAC8-31AFDA61832D}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B43528B6-A7DE-41AE-84A7-26E240DE25FD}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{719C32A3-6789-4A89-BDB9-15F5633A8A7D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C86BA226-CB66-4139-A89C-CEAF029D71C4}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2C36E3BB-5A9A-46C9-B8A7-629E7F09D5E4}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{745B4A7A-1D78-449F-A782-FD8658A1B6FE}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D54BAE13-7609-45E1-AD8F-94F58362D13B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F5A23262-85AD-4159-AF55-D3F6861707D9}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3A5F6DB9-ABC6-4EB6-A15F-68E9B585C3AD}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3891,7 +3891,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D10485F5-C25C-4CD5-BBF9-21E129ED0BBD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FC8027E-F678-4F94-8F8A-757C127F072B}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5160,18 +5160,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CBF3381C-1C61-4D1C-9FD8-237689CF6E69}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5C41B1D8-3C51-4B02-A77F-554B5725F122}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{EB59BBC0-75E2-4709-87B5-77C24AA5B44C}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{5902CB7A-EC4C-470A-8163-BFE6877B6678}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1A4FCD06-276D-494D-93F9-6D93AC23A616}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{EB15CA55-1248-4366-A6ED-62CAE68F333B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{CFD6844A-7A4B-4BD8-B8CC-A8985A8C4146}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3F90F8C9-2DC4-44B9-9BF8-577ED2AB1BFE}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8203D028-014F-46DC-93A0-25231669F216}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{614A7B5F-496D-4834-AA42-344906E8999C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{869DBFF5-5267-40E4-ADD2-F14CE21F3F00}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{34C80AF8-7B32-4897-A772-83F4283F4EC1}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D3F6E4B3-1FE6-4658-A39D-0C3F5CAEAD4F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{00A52744-22A5-46AD-AF75-650A1FDCFC63}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{BB7E0AF7-C507-4655-9B42-7332A8B0C1D1}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{74F4A46B-A1BA-461D-8F90-78C34F05D687}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3F94040F-52B4-4186-8C3D-CE29FB2F4442}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{8AC84EC4-348F-4D58-B005-3CFCC8B95EA4}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{AD7F4E84-0671-4CA9-AA28-E181271E1B5B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4455A367-E8E8-4EC8-BBB3-09240B6C4F8F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B9EFDB0C-446A-47A5-AB76-5FDB276C3C19}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{10299A3B-CBDE-44C4-AA88-73E06DF5DE50}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{99EB3F29-9D4F-49D0-89F8-89F8B4FF1D62}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0A7A0D5A-6704-4B30-B36F-185EA57BFEF1}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5184,7 +5184,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27ACB995-3413-4585-ADD6-5D2E9B400106}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC978F28-E6D1-4603-91F1-62BDD2F7DCBC}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -6433,18 +6433,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D1A4B545-5515-4BF0-805B-572CF9087899}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1B62CA5B-D9DE-4BF2-AC46-3B3742D70FDD}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{E0A041F0-7B1A-41AB-ACF1-C99E1C2F3E0A}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{1FAB2BEF-4E4C-427C-A6A7-10444AF4E328}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5922BBBB-6F7E-441A-81D1-04EF014D872D}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{187AA4C8-CBF6-4E7B-B2EC-B687AE57C127}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9AA520B3-635B-4270-98B1-4CD959A634EE}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{70F66546-4D9F-4143-9C54-D4728D34AC08}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{BDD68AC8-5D00-4669-B68E-D1BF4FCE3F57}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D3B32B03-62E2-4FAA-8643-247905F5AE48}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5F03A3F0-FE99-4917-8B1C-9537606B0060}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{EC69D426-025C-4568-90BB-59CFC3E6E161}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7A533E22-17A0-4D10-9ACC-09BB8ABD268D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F8EAA000-C682-4770-8B1D-E833D9D5788D}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{9C72CDAB-8BA7-4B8B-9374-A08510F45FC9}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{16C4C2F0-F82E-496D-9909-266398BFC271}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0374BA1A-7429-44B3-BF27-02F415BA50B8}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{35C0E638-94D0-4286-9B1E-886775B23B4E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0C9C974D-3E0E-43A7-B56F-E5065D8D9215}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7D3B0100-138F-4EDC-B731-B4DFC21FCAD5}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4585602A-2C5C-4251-A96B-15466EF6F3E8}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E52D1924-2AB5-4570-92F2-51F0A66F6205}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C499CCCE-3CED-4CE2-930E-DD51CFA288E8}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{80861B80-2A32-488A-B912-2044D4F75ED0}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6457,7 +6457,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B658F88F-9423-46A3-940F-1C2FBC4744EC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C009A00-BC74-41FC-A85B-601AB150FA52}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7732,18 +7732,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{ADFCB455-22C7-485B-842B-422DB201256A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{AA95FC92-3DB8-4180-91F2-2300F924A8C1}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{56993799-2D06-4738-899C-BBA2E549E96E}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{C5F24322-0519-4E3A-8B7E-64D1531DB348}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{45BF0CF5-C412-4799-93DF-5F4B7D1FD06D}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{96C10743-8AF6-47D6-BB55-07201E5EBE22}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{041D1112-ACCB-469E-B3D6-B6EC3EA98CA2}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{541B09C0-42F3-4FD7-9243-6886505CE9D7}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{92E0023D-5921-4AF1-A5A0-1F17DD20ACD6}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{CC7F1EE3-0C13-4CF2-82F4-C824FE72B4A6}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5A9FAD76-3733-4BAB-A176-C0034C76AE84}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E34B398A-578D-420A-833B-2738AFD217BF}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2D0CD8D6-9D38-4508-85DA-2B578CEFB94A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3D18513B-725E-444D-BA27-F990422E753D}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{A0366459-7701-4689-87FC-DC1704816859}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{D3975216-E936-4E2D-9AD9-B0FECDF640FA}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7F626375-3F72-4117-B629-A79355A03DF6}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{1241DD5C-D43C-4EC4-82F4-C676ACA57908}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F67156A9-691B-46D5-A687-38E56BF75091}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{09B9F6C8-5E51-475A-ABE6-0160D178230A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2B9E4F5C-E805-41CD-916D-31479E51AEE8}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{99030891-C98D-4CA0-B95C-1A0F460E1CC5}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{31C088AA-A43F-4E54-84B3-02A0446E304C}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{761C2CC8-E7CE-4B22-9F2C-5AE34047F043}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7756,7 +7756,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B58DDD7B-3891-4DA8-AB8C-681BCE50B8EC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17161EF5-7C13-4391-B99E-F05C48A7A814}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9031,18 +9031,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{EF995AC2-6F49-43B5-8291-655848994587}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F46F84C0-D896-41E9-BCCB-679B548017A5}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{9E6F76F2-DFCB-4637-B4E1-C28015EBA704}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{5BFF01B4-5A2B-4D91-81A7-841916AF2C79}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2D741A05-343D-4923-BB93-96666445245E}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{9D68CB9A-B526-4C93-9BCA-B4E598BE1AEA}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{786B5615-F1E4-40CF-8DB2-EDE02E2935D8}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9C132F0D-CEDD-4B23-A44F-5F56DDAD1430}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B61CCDED-7C42-497F-AFCB-0D76B7FE7728}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{49DA8696-48F8-480E-B608-E99F81D1BD37}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7C1EDA19-1F2F-4619-9E94-65E8A1AA1E70}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F951E096-EAF3-4045-823B-39C3C50A083E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{75389FBB-3C1A-4CED-A0F4-56F83C6F5D95}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{80097BD0-5141-422F-AFA8-CF92B740664A}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{032463B9-9360-4C0B-B364-DE67A80D78FD}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{AFC9A32E-F469-417B-AE21-570F78708F3F}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1E48DE76-A3D9-4361-9D42-42B969352376}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{5F92594A-5F47-4A51-8446-35FD4E62AD6C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5136787A-B0B1-45F8-8CA5-D83531EE1568}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{75360BC7-A322-4F26-AE12-D692715CC2B7}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B7FE9D3D-09FB-4F3D-A6C6-1A719089B080}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F01E54A7-82A2-494D-88FA-19607B5CB14A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2089F2E6-AD18-4616-8790-9420DC3CA2A8}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{67CC0132-6972-455B-80CB-3EE1E55CDEC0}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9055,7 +9055,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84EE761F-B18D-4F98-A69F-84852C841E20}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9D747DB-C66C-479E-8172-287713A671E0}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10330,18 +10330,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{557885DF-D416-4D28-84B8-0E72F6F01EAD}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DE51D3D9-B471-4101-93D4-162C13C01D43}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{2CA0C2BB-818F-4777-90FF-EB230310097B}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{50C133A5-FC3B-4638-AF4E-1275CAB5AED8}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{CF1CB7CD-C8CC-4324-984D-CFB592748269}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{A3424941-2C64-4382-9D08-E6E08F6750AC}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8A0F8429-5155-4BD8-9715-95935C155B89}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{AAFD1C8F-9CCC-4D5F-84C9-3405D12F0FBD}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E9E4424B-2E70-46A2-AC88-74251FE39E8D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{EC7ED0E1-72E6-45BB-8392-9AFADBA23A85}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{879AFA30-A2AB-47CD-B95F-1358CC2AA5BF}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CF45FCB7-FD91-4821-B60A-0CF04A13CA80}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1FEF6B13-7BBE-4085-B86D-3C03BF89BA83}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4C443976-3FC0-437D-8717-5B5EE68BFE5B}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{486A75DC-ADE3-4E5A-8B20-324EAB57A42E}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{99B8C488-82AA-4649-AACB-8587FF9F33A9}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{69D1BA1D-3ECF-4BB9-B89C-A2E02F4815E7}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{D6321657-C4A4-4C86-98FD-F1DBA3D12F1F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6CF8A9C4-65C2-402D-8C00-2B54724F064C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A28FDDE0-7EFA-4BE3-875B-3038652B772F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{69948558-DC9D-4C60-B9B1-41CE01C581F1}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{DAA14384-FBB0-4164-BE39-5C6B1333D4F0}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B8F20426-CC7F-432D-96D9-4D2816BC0FDE}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F645F455-A1E4-4188-9FFF-E312F1389B7E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10354,7 +10354,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9EB02FD-023A-4EC7-BB1C-48EDF5DE7223}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CF98A85-14AE-4E85-AC10-A98B582FC9AC}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11629,18 +11629,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{828023A9-DAFF-4D9C-9559-6459FC476F50}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{654A1CF9-D4E5-4D7E-913E-1220B95692AC}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{C49288F7-8CF3-48A7-9E42-B4369DABBD3C}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{1F86F7FC-7B68-4DFA-96F5-D5E8C8537BA9}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5F5D7BD7-ABB3-40C1-8121-5BBDB75E16D9}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{35DCD9B8-D57A-4645-B9F0-8BA16096AD93}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5AC0BE45-7949-4623-847F-76B8AFB83778}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EF71F0AC-7005-48E1-9E07-A4104AC11C2E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1DFBA8E1-2CFB-43BD-A06F-E4E331C93FC2}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{83558C68-0B34-41C9-A464-DEFC5992F7F7}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DB64983E-EE74-44C1-8983-01207BF63D7F}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A22DE8E0-DB41-44C5-AED9-16E195FE4160}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BD29985F-BB97-40CC-A9E4-7134173B4E0B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{EAA57890-FD28-4348-B0EB-EBCA674E769D}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{89D85BC4-59C3-4836-A75C-409E9EAB40AB}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{2494A3A4-1F34-4682-83AE-EADE1CC326D2}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{58074805-B37F-4DF5-AC5B-C7A9AB3CF4A0}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{71BC3630-AA28-4D5F-9FAD-E574ED9038B2}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{28441627-CDBE-4B12-B4BD-D5C2AAB4B078}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1D0807F9-A69A-45CE-B5F7-359BECA47B81}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6DAA3036-4C6C-4F2D-AA1F-A91C1196C0ED}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B2EABD3A-8F33-4226-AA1F-81C6315711D0}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E7D7873A-EF06-4B68-B4C8-97684040E21D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{EEAAFC4B-1AEF-45AC-B553-3DC468A2B821}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11653,7 +11653,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92A45FC0-5C01-45F1-BBBA-104E8CDE3AED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54604CF9-DDE9-424B-AEFE-EA3E5FF4493F}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12928,18 +12928,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4545459A-54AD-4376-A7FC-FF6E0575106F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{36109EF0-62C2-405B-A033-6328C9B0B944}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{4BCD812E-DE48-4A88-9383-038EA37E2E4A}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{7D9E6CE1-3308-41A3-B519-2441C6F10E94}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5D80198F-7551-4EFC-AD34-1E218BB8C6F0}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{5751CE7D-BB8D-4001-9A95-0BE93C75FA1F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E916B699-793A-43C0-A4D6-627D90CE5DE4}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6177ABAC-EC23-48F3-90F4-88EEB0A436C8}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0BC0C0AD-C831-4B16-90FC-C6A980026BC9}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{38DA2A75-AFC9-4CB2-9294-CD4AE6074D56}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{BD55D253-E182-4FA4-88B7-5F776FDC264E}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{51D099B2-4B44-4978-95E6-FFEE6D756E89}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D8B4AB7E-83A0-4C9A-8C0D-CD9A855E8CC3}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DAF6C7F1-B19C-4558-A839-0B85591B7F8C}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{FF238275-FD2F-4EDC-A151-677EA3C54926}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{623141C9-CA16-4F79-A0B9-EB1B0470A95E}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F7210BB9-E250-419C-8E6E-36F69A1D2FF0}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{0A294260-3AE4-4FFF-ABD2-A8F30ECD4C46}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7F56BECB-2045-4683-8121-A2252A07EE69}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B621E8CE-0E88-4F6C-BAC0-B2CBCFAD6CD4}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{883CA7EE-FF41-4C89-932C-D0EAF112CB84}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{59F8C21F-5482-4561-9FF0-A26F7DB6C6B8}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{ED52A87D-71EA-4D7B-8917-B822B2AC1EAF}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A5E0DA7D-7EF5-4F7B-A9A5-8D78EEB0B3B2}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12952,7 +12952,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E959FA6-5A67-49A2-B50D-579C4E670B85}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4347752C-DC9D-492C-B8B2-302776D91EF4}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14227,18 +14227,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C862D748-1427-4762-B8EE-9D2B2619AF31}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0FE3F428-F702-4234-8FF6-495ABB261591}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{228C7436-4B76-44DD-9E78-A7713A2F820D}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{CDBB4F28-FE05-4CC4-88DB-E908332860AD}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C3957DFF-0BF8-4141-866B-13A6E8D75E9B}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{241AAEFE-6755-4B00-A351-F8339386F532}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B45BF8F2-2BB7-414A-8426-588577683FAD}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2E74ADB7-98E5-40E5-B845-AAC7D7C5E2D7}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7D77E002-A50E-4B78-B3A1-0A73E6A9A77A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{AC900701-D62B-4315-B52F-4FAD6BAC1DD0}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{395DE16E-3466-4F3B-A6E3-DEEBAC5A61D0}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7A6EB5C0-9DD9-4F66-ADED-C187B09A354D}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BBCFA9F7-7E50-4803-8813-8BC68373768A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DE812C58-B35B-4CE8-BB89-518EFB605C4A}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{8EE0456D-82CE-406C-8CDE-C7B7A59FECA5}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{61AF0B31-1596-485F-BD33-5D2AB50ACD87}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{768D76E9-AACD-4E36-9012-24BEC469DDC6}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{C2EED7C7-02A3-404E-81E1-3FB3DD1F37CA}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{60A82100-A8B5-46A0-A312-098D4359A6FC}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1E298AB5-0372-458E-9429-36BF61AE8368}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{05C098EF-51E4-488C-B066-E32A227708D7}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{2F311CF4-57DD-4282-AEAA-2DB9B4BC0116}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A888D005-A1A4-4032-B892-3893004A4F5F}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6665B2E9-335B-4525-A6F3-45488DDCE03C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14251,7 +14251,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3039A653-39A4-46A3-9D25-76D40D0A732D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C961B73C-8064-404B-9DD6-83EDD5868B9D}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15526,18 +15526,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{96FADA78-595F-489A-AB57-BDA15713FA52}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{925966CC-2EA9-450C-88A8-8B4E5F2DF727}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{1411EDA3-20BA-4F64-9598-923E92E56AD4}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{65B7CDF3-F88C-472D-8336-84501E0601E6}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D6058A56-9A70-42C6-9E86-607573F75E5B}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{3B65EBC9-DB1D-4F1C-AC5C-99AEAE305B6B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{389515B6-1E83-457A-B930-83E1A9D80183}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{51B157C7-74EE-4960-AB11-A9D7E81C6C10}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A0A20939-BCF9-461C-ADA0-E129482F4204}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{0467E4A6-0B7F-4842-BA8B-F840795252DE}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{87418FA0-826B-4738-BDAF-EBD0518B78C8}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9776C1C0-B33F-4901-BF9C-F7213CD02708}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{97109675-B783-4421-835F-5F5CABFD8692}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8BA5603A-BAE9-49FE-A675-98997265F59B}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{6A596E9D-C0DE-4DD9-ABCF-98A308C06C10}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{21099306-8873-4F82-842A-FEB75B720F8D}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D703E464-BA2F-441E-9E81-C369B634F3F8}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{A7134288-0F04-4149-84A2-16A775D8DC63}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{97FF0C1F-BB4D-4028-A8EA-10CDCE6068F1}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2DF5341B-1838-4529-88DF-15411D41EEDA}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{AE4DD7D0-92AF-4E2E-A9C0-6F3135706CB7}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{06893EBB-8525-4ECF-B0BF-0BDC4584C770}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E927A827-E97B-4C6C-BAFA-001F0E5E53D1}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B2833AEB-B076-4CFF-B6DB-C8E1F8998A88}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15550,7 +15550,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF4DE884-2402-4630-A454-AA63607B3327}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A27C5523-7BA0-442B-8BD9-CFFCF4AF01B3}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -16821,18 +16821,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C89EE216-5027-44D1-B16A-120AC5DA3BF9}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F93DCFAF-A4FA-43F4-AA72-7EB4C8200CEF}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{41B871B7-2451-4076-848C-3AA8A161151F}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{10A4E855-3B16-466F-AF0F-D676769F4E55}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{EB94118C-D002-4532-8E01-22D890FC4CAF}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{EEBF7F91-38E4-4CEE-B16A-53A29B00059E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EC129E41-52D4-4FBC-B38F-BA1332F7D48B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2673370A-1632-4073-93E9-13C3DA772E5D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B6FB2E0C-0933-4BB4-B092-8E4BF5FBC107}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{2E7EC28B-4C8C-4559-8B0F-0A0AD2EEF29A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C62AF9F2-398C-4A44-9A0B-5F0B6427A7E8}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A17C6B73-2943-4DB1-8AD2-D699DC8AB9E8}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6E1D324B-3519-4041-9F10-180419603CA3}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F364E924-6767-4DC8-9C56-FB8581C140AA}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{B68711D6-A6A0-433B-8AA5-EFC7DFF02F0D}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{7977BA60-6EFA-4C4F-BEF2-15DB9CC7A782}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{DD927F73-5949-4469-BA07-7168A13045C7}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{4D175906-697C-4DD3-A2DF-A95E78F8E22D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C25DE573-D40C-4C14-BD17-E689AA18D82B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{08C7EBA9-1A7C-49B7-A45D-FE6615E9439C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2D283E7D-3F0D-43CA-BC3A-D2DEF619C598}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C6C486D8-0151-4FD8-8A74-7A3F5C18F13A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B7254389-F00B-4CF5-A0E5-113FDC8BE4B8}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C14C8006-4992-4888-B145-731AF6B7DACE}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
